--- a/School/classes/results_ex1.xlsx
+++ b/School/classes/results_ex1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">ציונים תרגיל 1 </t>
   </si>
@@ -491,6 +491,31 @@
   </si>
   <si>
     <t xml:space="preserve">בונוס (חיסור נגטיבי) </t>
+  </si>
+  <si>
+    <t>ניתן להסיר אמנים - שאין אמנים
+ניתן להסיר את האומן האחרון (ואז לקבוצה יש 0 אמנים )</t>
+  </si>
+  <si>
+    <t>נלקח מהמייל לבקשת הסטודנט מתאריך 27.12</t>
+  </si>
+  <si>
+    <t>אני מחוייב להוסיך אמן ללהקה
+לא ניתן להוסיף אמן ללהקה פרט ליצירה</t>
+  </si>
+  <si>
+    <t>חייבים בהוספה של אמן לשייך ללהקה
+תוכנית מתרסקת כאשר מורדים להקה ואז אומן
+כשאני מסיר אומן הוא עדיין מראה אומנים שהסרתי.</t>
+  </si>
+  <si>
+    <t>לא ניתן להסיר/לראות אמנים</t>
+  </si>
+  <si>
+    <t>אין עדכונים בין העברות/הסרות של אומנים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פשוט לקוח את פונקציונאליות ושמו אותה על gui </t>
   </si>
 </sst>
 </file>
@@ -557,13 +582,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -871,13 +896,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="4" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -897,27 +922,27 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
@@ -933,13 +958,13 @@
       <c r="T4" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5">
         <v>1</v>
       </c>
@@ -979,10 +1004,10 @@
       <c r="O5">
         <v>11</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="X5" s="3" t="s">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="X5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1006,15 +1031,15 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <f>100-SUM(C6:R6)</f>
+        <f t="shared" ref="S6:S12" si="0">100-SUM(C6:R6)</f>
         <v>82</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="X6" s="3" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="X6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1038,13 +1063,13 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <f>100-SUM(C7:R7)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="X7" s="3" t="s">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="X7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1083,13 +1108,13 @@
         <v>7</v>
       </c>
       <c r="S8">
-        <f>100-SUM(C8:R8)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="X8" s="3" t="s">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="X8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1128,13 +1153,13 @@
         <v>7</v>
       </c>
       <c r="S9">
-        <f>100-SUM(C9:R9)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="X9" s="3" t="s">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="X9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1149,19 +1174,19 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <f>100-SUM(C10:R10)</f>
-        <v>85</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="X10" s="3" t="s">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="X10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1176,19 +1201,19 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <f>100-SUM(C11:R11)</f>
-        <v>85</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="X11" s="3" t="s">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="X11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1218,13 +1243,13 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <f>100-SUM(C12:R12)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="X12" s="3" t="s">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="X12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1242,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S14" si="0">100-SUM(C13:R13)</f>
+        <f t="shared" ref="S13" si="1">100-SUM(C13:R13)</f>
         <v>88</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="X13" s="3" t="s">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="X13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1269,10 +1294,10 @@
         <f>100-SUM(C14:R14)</f>
         <v>88</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="X14" s="3" t="s">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="X14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1290,15 +1315,15 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S20" si="1">100-SUM(C15:R15)</f>
+        <f t="shared" ref="S15:S38" si="2">100-SUM(C15:R15)</f>
         <v>91</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="X15" s="3" t="s">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="X15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1316,15 +1341,15 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="X16" s="3" t="s">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="X16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1351,13 +1376,13 @@
         <v>2</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="X17" s="3" t="s">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="X17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1384,88 +1409,571 @@
         <v>2</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>302972310</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="X19" s="4" t="s">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="X19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200384501</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
       <c r="S20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="X20" s="4" t="s">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="X20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="A21">
+        <v>39600267</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>-7</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="A22">
+        <v>36860070</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>-7</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="A23">
+        <v>300551157</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="A24">
+        <v>39814678</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="A25">
+        <v>36897734</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="A26">
+        <v>41707787</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="A27">
+        <v>40482879</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+      <c r="A28">
+        <v>40625568</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>37019197</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="T29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>300999760</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>326959723</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="R31">
+        <v>7</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="T31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>317837862</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>36151827</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>-8</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40900086</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>-8</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="57" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S57">
         <f>AVERAGE(S6:S56)</f>
-        <v>84.466666666666669</v>
+        <v>79.34482758620689</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="T19:V19"/>
     <mergeCell ref="T26:V26"/>
     <mergeCell ref="T27:V27"/>
     <mergeCell ref="T28:V28"/>
@@ -1475,24 +1983,6 @@
     <mergeCell ref="T23:V23"/>
     <mergeCell ref="T24:V24"/>
     <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/School/classes/results_ex1.xlsx
+++ b/School/classes/results_ex1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t xml:space="preserve">ציונים תרגיל 1 </t>
   </si>
@@ -515,7 +515,30 @@
     <t>אין עדכונים בין העברות/הסרות של אומנים</t>
   </si>
   <si>
-    <t xml:space="preserve">פשוט לקוח את פונקציונאליות ושמו אותה על gui </t>
+    <t xml:space="preserve">פשוט לקח את פונקציונאליות ושמו אותה על gui </t>
+  </si>
+  <si>
+    <t>אין בכלל פונקצינאליות להרכבים</t>
+  </si>
+  <si>
+    <t>לא מצויין שנגנב מחשב
+תוכנית מתרסקת</t>
+  </si>
+  <si>
+    <t>בעיות יציבות</t>
+  </si>
+  <si>
+    <t>באגים....</t>
+  </si>
+  <si>
+    <t>ערכו את הטסטים -עבודה לא נבדקה... 
+הורדו ממשקים</t>
+  </si>
+  <si>
+    <t>מ</t>
+  </si>
+  <si>
+    <t>ממוצע כתתי:</t>
   </si>
 </sst>
 </file>
@@ -576,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,6 +615,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,9 +1056,12 @@
       <c r="P6">
         <v>3</v>
       </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
       <c r="S6">
         <f t="shared" ref="S6:S12" si="0">100-SUM(C6:R6)</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>26</v>
@@ -1062,9 +1091,12 @@
       <c r="P7">
         <v>3</v>
       </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1315,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S38" si="2">100-SUM(C15:R15)</f>
+        <f t="shared" ref="S15:S47" si="2">100-SUM(C15:R15)</f>
         <v>91</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -1441,9 +1473,12 @@
       <c r="O19">
         <v>5</v>
       </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
       <c r="S19">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>32</v>
@@ -1479,9 +1514,12 @@
       <c r="O20">
         <v>5</v>
       </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
       <c r="S20">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -1912,7 +1950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>36151827</v>
       </c>
@@ -1930,7 +1968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40900086</v>
       </c>
@@ -1948,14 +1986,359 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>300318490</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>66629320</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>302627427</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="T37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>301039681</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>29992716</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39950753</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>34730382</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39455209</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>-14</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>53081030</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>-14</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>306307729</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="T44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43352558</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="T45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>320451693</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+      <c r="S46">
+        <f>100-SUM(B46:R46)</f>
+        <v>30</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>316981083</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="S47">
+        <f>100-SUM(B47:R47)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s">
+        <v>45</v>
+      </c>
       <c r="S57">
         <f>AVERAGE(S6:S56)</f>
-        <v>79.34482758620689</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T26:V26"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="C4:O4"/>
     <mergeCell ref="B4:B5"/>
@@ -1968,21 +2351,6 @@
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="T25:V25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
